--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2031129902503992</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.671844295549365</v>
+        <v>-1.672548669106147</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2034300521445439</v>
+        <v>-0.2023565711038169</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3115163711851409</v>
+        <v>-0.310061977517059</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2149342135274737</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811037954484228</v>
+        <v>-1.811143413765355</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.189364617276601</v>
+        <v>-0.1884469641288827</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3128794717441872</v>
+        <v>-0.3116454407530875</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2377958005299948</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.988514906487366</v>
+        <v>-1.987828634150478</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2633340718630055</v>
+        <v>-0.261991433552536</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3444180928776891</v>
+        <v>-0.3428787021770571</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2606461843828419</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.016957432009269</v>
+        <v>-2.016168061419937</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.237498122005976</v>
+        <v>-0.2363931605828229</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3487734037863282</v>
+        <v>-0.3473662306918853</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.272449207868129</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.953644873883631</v>
+        <v>-1.953008970158625</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1916280567730314</v>
+        <v>-0.1910850201761826</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3622658956941176</v>
+        <v>-0.3611278798694172</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2678372405874294</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.707124360134199</v>
+        <v>-1.706765483774542</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1653812879253424</v>
+        <v>-0.16437391568771</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3791598429230379</v>
+        <v>-0.3777558178668377</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2486867865503414</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.481631167826223</v>
+        <v>-1.480321583917301</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04766826793887045</v>
+        <v>-0.04668293196893622</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3626216240155316</v>
+        <v>-0.361184544557784</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2163457623009987</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.198339206374525</v>
+        <v>-1.195379263416919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002196657823935335</v>
+        <v>0.00298524140370698</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3151680955465584</v>
+        <v>-0.3144818232096713</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1675656416754585</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.0133258508186</v>
+        <v>-1.009753614422808</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145877845273626</v>
+        <v>0.1457220173806172</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3084281456691489</v>
+        <v>-0.3073357763989662</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09903766194962678</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7815956077424699</v>
+        <v>-0.7769727135832099</v>
       </c>
       <c r="F11" t="n">
-        <v>0.170663924376748</v>
+        <v>0.1701019995504436</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2948176023272618</v>
+        <v>-0.2932671934927807</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.007820861695699354</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5537390257238611</v>
+        <v>-0.547797103540951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1630015992942562</v>
+        <v>0.1617707163413991</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2476804517016702</v>
+        <v>-0.246595952527094</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1136222313287033</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.341836701518756</v>
+        <v>-0.3347835218362076</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01466423500343763</v>
+        <v>-0.01520727160028637</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1972142506345275</v>
+        <v>-0.195918832897697</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2679164083005117</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03336358216448981</v>
+        <v>-0.02572958942618147</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1328652009175128</v>
+        <v>-0.1336632286120122</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08783093983797881</v>
+        <v>-0.08700300578017464</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4510117917935504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3641738351494545</v>
+        <v>0.3725476168747742</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4087214960401861</v>
+        <v>-0.4088836200096801</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04055707782915439</v>
+        <v>0.04075383021931699</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.657807879307326</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7233177780566324</v>
+        <v>0.7329665152702056</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.613273150948817</v>
+        <v>-0.6136540635761718</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08188294985890396</v>
+        <v>0.08270930989758682</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8779404628382544</v>
       </c>
       <c r="E17" t="n">
-        <v>1.217163129326481</v>
+        <v>1.226571041614495</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7289226318672637</v>
+        <v>-0.7310318174898066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1432146049203853</v>
+        <v>0.1441716085461361</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.095602950178085</v>
       </c>
       <c r="E18" t="n">
-        <v>1.570228210387195</v>
+        <v>1.579900557887588</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9229291456727406</v>
+        <v>-0.925309849593708</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1971027235572356</v>
+        <v>0.1985996157415925</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.299176486372811</v>
       </c>
       <c r="E19" t="n">
-        <v>1.934778908976041</v>
+        <v>1.944901425945126</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.031783586044532</v>
+        <v>-1.035126015648614</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2618185197295134</v>
+        <v>0.2637923397076244</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.483441829151204</v>
       </c>
       <c r="E20" t="n">
-        <v>2.249485144050658</v>
+        <v>2.260094032928225</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.248329266657474</v>
+        <v>-1.252065988051442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3330916795611298</v>
+        <v>0.334804212365105</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.646533411136244</v>
       </c>
       <c r="E21" t="n">
-        <v>2.509919199822827</v>
+        <v>2.520614659752066</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28359988712758</v>
+        <v>-1.28856119539792</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4578358429624519</v>
+        <v>0.4594208802176017</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.784249511050057</v>
       </c>
       <c r="E22" t="n">
-        <v>2.73082176536353</v>
+        <v>2.74170138552996</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.395607874808898</v>
+        <v>-1.40127355663602</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4596129105504004</v>
+        <v>0.4618543137791326</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.892694842444338</v>
       </c>
       <c r="E23" t="n">
-        <v>2.809115050476147</v>
+        <v>2.821005190918453</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.505652273636393</v>
+        <v>-1.51121485721107</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5586989882554</v>
+        <v>0.5607515091895761</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.97371334657477</v>
       </c>
       <c r="E24" t="n">
-        <v>2.93293998671063</v>
+        <v>2.944455510602066</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.647758654955222</v>
+        <v>-1.652569644399478</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5995683947399724</v>
+        <v>0.6014336073987137</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.030232972343696</v>
       </c>
       <c r="E25" t="n">
-        <v>2.941855231013677</v>
+        <v>2.953276313757835</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.597258612476972</v>
+        <v>-1.6042881818727</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6542073204976832</v>
+        <v>0.6560253125827854</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.065683894929928</v>
       </c>
       <c r="E26" t="n">
-        <v>2.928118766142086</v>
+        <v>2.939758637544104</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.515346657404484</v>
+        <v>-1.52295389181773</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5951579931620878</v>
+        <v>0.5980793726512219</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.082881364755223</v>
       </c>
       <c r="E27" t="n">
-        <v>2.99840973804201</v>
+        <v>3.008801412280838</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.558437004869211</v>
+        <v>-1.565485462494396</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6245024316404966</v>
+        <v>0.6269799377374239</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.081025696905692</v>
       </c>
       <c r="E28" t="n">
-        <v>2.938233413015564</v>
+        <v>2.948253618741764</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.511800392324193</v>
+        <v>-1.518859081073666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.642093669340153</v>
+        <v>0.6447049670623909</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.057506033667571</v>
       </c>
       <c r="E29" t="n">
-        <v>2.806327462612324</v>
+        <v>2.816897001011858</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.664291364795804</v>
+        <v>-1.669892511838952</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6120550884292507</v>
+        <v>0.6145310205070567</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.009321917460203</v>
       </c>
       <c r="E30" t="n">
-        <v>2.760199258243486</v>
+        <v>2.770568896214614</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.648417381957487</v>
+        <v>-1.653948485149737</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5639263057572396</v>
+        <v>0.5667359298887613</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.935777776379257</v>
       </c>
       <c r="E31" t="n">
-        <v>2.645536687314094</v>
+        <v>2.655717442990667</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.685987644363813</v>
+        <v>-1.690653037039348</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5561490772788928</v>
+        <v>0.5585541784962403</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.839005834488361</v>
       </c>
       <c r="E32" t="n">
-        <v>2.605307906611892</v>
+        <v>2.615310798127757</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.730689000399191</v>
+        <v>-1.734827096669091</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5472684613965144</v>
+        <v>0.5494972724722762</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.724173196399529</v>
       </c>
       <c r="E33" t="n">
-        <v>2.428948508184877</v>
+        <v>2.439149726110027</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.722378966448284</v>
+        <v>-1.726472990182788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5441188491347917</v>
+        <v>0.5457888834224918</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.596656497177439</v>
       </c>
       <c r="E34" t="n">
-        <v>2.256453326700656</v>
+        <v>2.266961478354459</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.713652604439794</v>
+        <v>-1.717432611359597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.483596239901659</v>
+        <v>0.4856471868167138</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.46061865528907</v>
       </c>
       <c r="E35" t="n">
-        <v>2.103968650305531</v>
+        <v>2.113971541821396</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.752271163580906</v>
+        <v>-1.75542313687131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4208936141855248</v>
+        <v>0.4228265096664821</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.321560586901889</v>
       </c>
       <c r="E36" t="n">
-        <v>1.952840778392966</v>
+        <v>1.962292763216377</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.62116953694865</v>
+        <v>-1.625328095467127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4231082590891949</v>
+        <v>0.424904214906599</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.183657367290668</v>
       </c>
       <c r="E37" t="n">
-        <v>1.753700601223367</v>
+        <v>1.763486278100494</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.606790872275569</v>
+        <v>-1.611095027562765</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3430662387328123</v>
+        <v>0.3454319894721272</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.049862892869306</v>
       </c>
       <c r="E38" t="n">
-        <v>1.635935638605893</v>
+        <v>1.645088559796256</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.50430491326856</v>
+        <v>-1.509214278907896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2952129094070288</v>
+        <v>0.2979312404295151</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9229814920244175</v>
       </c>
       <c r="E39" t="n">
-        <v>1.463640357550077</v>
+        <v>1.472853091467049</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.466501696032281</v>
+        <v>-1.471378794279631</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2806532325349974</v>
+        <v>0.2826774211249901</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8030420341365838</v>
       </c>
       <c r="E40" t="n">
-        <v>1.234450581335726</v>
+        <v>1.243976545057838</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.537407322399074</v>
+        <v>-1.540408976863394</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3011406654178472</v>
+        <v>0.3026847781758432</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6900191782810674</v>
       </c>
       <c r="E41" t="n">
-        <v>1.150571102361613</v>
+        <v>1.159538289295662</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.477498580623248</v>
+        <v>-1.480516762288342</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2016122883397621</v>
+        <v>0.2035404617633554</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5843982973100152</v>
       </c>
       <c r="E42" t="n">
-        <v>1.013219045798672</v>
+        <v>1.021481072166379</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.361091209497895</v>
+        <v>-1.36576840731684</v>
       </c>
       <c r="G42" t="n">
-        <v>0.161629054620482</v>
+        <v>0.163639077038383</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4850300095311805</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9253698906006378</v>
+        <v>0.9332872067807803</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.296938912171043</v>
+        <v>-1.3012438544678</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1204952129235311</v>
+        <v>0.1224973652458256</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3926184056174747</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7543794713963802</v>
+        <v>0.7628240839821584</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.224141314820447</v>
+        <v>-1.228943647159535</v>
       </c>
       <c r="G44" t="n">
-        <v>0.105376759263438</v>
+        <v>0.1071679930234782</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3067172923614425</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5962346222410575</v>
+        <v>0.6039520379927947</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.191064877005434</v>
+        <v>-1.194249904697386</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09003951694548412</v>
+        <v>0.09148918855620206</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2262135710581769</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4248066257210783</v>
+        <v>0.4327554222836468</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.052337914740037</v>
+        <v>-1.057086730429001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01558054241235508</v>
+        <v>0.01728992717808763</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1515252470283019</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3461654823826533</v>
+        <v>0.3535224477556128</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.070889304103687</v>
+        <v>-1.07395470634242</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02339374505017125</v>
+        <v>-0.02166547205498309</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08124817803719528</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2109635359394094</v>
+        <v>0.2179317185894076</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9453423909505018</v>
+        <v>-0.9500353289606598</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01297531248628199</v>
+        <v>-0.01205451130032109</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01300170703407514</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2059077865217916</v>
+        <v>0.2122589536762399</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9167401024877864</v>
+        <v>-0.9213826718860627</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09140868530069526</v>
+        <v>-0.09006919502846839</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.05460255890430799</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02922414015578945</v>
+        <v>0.03600029247298891</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8577395697449514</v>
+        <v>-0.8624199156021389</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.09981237338931964</v>
+        <v>-0.09881916732377891</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.123526468822204</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01994687145484319</v>
+        <v>0.02575027995507883</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9485384367763029</v>
+        <v>-0.9516203662158096</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1424997719589943</v>
+        <v>-0.1413302757518679</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1948557228777129</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03203353600699072</v>
+        <v>-0.02676057195063342</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9108997045382001</v>
+        <v>-0.9142287549797511</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1518242612335796</v>
+        <v>-0.1508672576078287</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2693065510156332</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.09802271364840076</v>
+        <v>-0.0931023298752148</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8661920524263361</v>
+        <v>-0.8696863748756236</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1883619670963324</v>
+        <v>-0.1873152443806675</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3484530020740113</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.200530708923108</v>
+        <v>-0.1956008810351943</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.871672787006705</v>
+        <v>-0.8748554536699751</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2392027847143446</v>
+        <v>-0.2379545875511532</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4317759818113969</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2822207272994924</v>
+        <v>-0.277501817973833</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8531890804652711</v>
+        <v>-0.8568856643716457</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2321401609170685</v>
+        <v>-0.231310652840143</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5190444712208393</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3169624773448412</v>
+        <v>-0.3122089395985131</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.838970965742562</v>
+        <v>-0.842718705270379</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2352425526051521</v>
+        <v>-0.2346759057214839</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.610506240908558</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3714518712860284</v>
+        <v>-0.3670288775551735</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8403836479039294</v>
+        <v>-0.843803204444955</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3473378983477019</v>
+        <v>-0.3460361845343862</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.705665048734295</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3922824403373217</v>
+        <v>-0.3882167489470021</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7456387149354771</v>
+        <v>-0.749883844505625</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3569362669493935</v>
+        <v>-0.3555763144285897</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.8038052936558024</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5049853574606936</v>
+        <v>-0.500820502865732</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7434602724715969</v>
+        <v>-0.7477998431890229</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4099004363620403</v>
+        <v>-0.4082036437492782</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.9030925966811238</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5226930725753263</v>
+        <v>-0.5187407105617403</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7325113954638293</v>
+        <v>-0.7374538155047135</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.413437257327603</v>
+        <v>-0.4118821264357579</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.9998810968035954</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5386300161784958</v>
+        <v>-0.5352254128191224</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7452011376197555</v>
+        <v>-0.7499641194808113</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4536219654944095</v>
+        <v>-0.4522494208206354</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.090877795738905</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6456554463313361</v>
+        <v>-0.641781785273815</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7856361148268488</v>
+        <v>-0.7905832569250969</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4869313581393747</v>
+        <v>-0.4856516805937572</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.173164228747199</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7260106964928574</v>
+        <v>-0.7222110143340376</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8001312569149068</v>
+        <v>-0.8052232087723146</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5463427098728691</v>
+        <v>-0.5444098143919119</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.2434046478771</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7553708751624792</v>
+        <v>-0.7513398121928281</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.846812729004882</v>
+        <v>-0.8515434434739512</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5397995123856222</v>
+        <v>-0.5382365113981706</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.30014263343549</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8114169740146328</v>
+        <v>-0.8076487722382389</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8600557388819453</v>
+        <v>-0.864990288827223</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.577064415082416</v>
+        <v>-0.5755140062479348</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.342378997049254</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8391401727981018</v>
+        <v>-0.8352610026736562</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.964010257729128</v>
+        <v>-0.9680822451959329</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6598090262700719</v>
+        <v>-0.6567459850600207</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.370590449919652</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9656708479021002</v>
+        <v>-0.9616673302670719</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9285743652512856</v>
+        <v>-0.9329548604658654</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6595083886179034</v>
+        <v>-0.6568199639587219</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.385594446061887</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.015360270532881</v>
+        <v>-1.011481887417996</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.01174081356345</v>
+        <v>-1.015754562322767</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7187654864775104</v>
+        <v>-0.7159747505754442</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.388722443549681</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.044818825397584</v>
+        <v>-1.040837344030254</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9779001894650459</v>
+        <v>-0.9822515653258816</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7482106621796824</v>
+        <v>-0.7451570650843591</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.381805015332927</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.191945540703802</v>
+        <v>-1.186933863821581</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.974471975818853</v>
+        <v>-0.978604563021828</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7697212074913775</v>
+        <v>-0.7667258491035424</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.367287193032318</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.195480000640682</v>
+        <v>-1.19044235244296</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.016478611118565</v>
+        <v>-1.020412084902695</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7988248210442273</v>
+        <v>-0.7954391059143096</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.346538981533365</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.171617870761764</v>
+        <v>-1.166643183328893</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.104645718179102</v>
+        <v>-1.107885836540299</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7621769338429834</v>
+        <v>-0.7590729681357784</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.319878209216961</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.12789004555291</v>
+        <v>-1.122591110181051</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.17039092285671</v>
+        <v>-1.173003007588509</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7519190512294668</v>
+        <v>-0.7492652549909539</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.287544581710046</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.129204351519196</v>
+        <v>-1.123818845095665</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.16360139137698</v>
+        <v>-1.16649443852193</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7566773110331587</v>
+        <v>-0.7534379796815219</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.24837978482669</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.051255776594143</v>
+        <v>-1.045873418208855</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.195468982506833</v>
+        <v>-1.198684703571651</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7707994105894685</v>
+        <v>-0.7672216651267521</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.201325479963088</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9610164733604141</v>
+        <v>-0.9550021462979241</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.27613352742569</v>
+        <v>-1.278533906585674</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7152994963724063</v>
+        <v>-0.7118130440187252</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.145972207244369</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8512522499365106</v>
+        <v>-0.8454299532068194</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.225073921149817</v>
+        <v>-1.228037799155227</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7244130670847373</v>
+        <v>-0.720359967847388</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.082502876442209</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7599323825760086</v>
+        <v>-0.7534427017388858</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.22701311270726</v>
+        <v>-1.229882549565391</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6844093711168803</v>
+        <v>-0.6804585831224156</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.011522178704835</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6384322725836872</v>
+        <v>-0.6319095373450171</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.291052080657378</v>
+        <v>-1.293047936903188</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6611312023319644</v>
+        <v>-0.6570639369225234</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9344090055221203</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4616038164585253</v>
+        <v>-0.4555155104973342</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.208039886219101</v>
+        <v>-1.210504013153498</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6768965778509121</v>
+        <v>-0.6724688620626933</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8512967177196276</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2414441879430768</v>
+        <v>-0.2358107735079417</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.221363958080912</v>
+        <v>-1.223490457913789</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6100857622281831</v>
+        <v>-0.6062514516486947</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7627022674751001</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.07366948980363651</v>
+        <v>-0.06816199689820542</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.230589284150855</v>
+        <v>-1.233052624075691</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4793178276496433</v>
+        <v>-0.4764389466767843</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6697025538262836</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1168057121032023</v>
+        <v>0.1222486702246601</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.147093865842339</v>
+        <v>-1.149569797920145</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.437962049256589</v>
+        <v>-0.4353476034961086</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5721822473328846</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2659849483435963</v>
+        <v>0.2718465955513201</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.121150882685061</v>
+        <v>-1.123917221290747</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3455576827215108</v>
+        <v>-0.343297391263323</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4720594491127842</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4724742207905483</v>
+        <v>0.477325347722397</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.098929667740098</v>
+        <v>-1.101082925898038</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2725956003727387</v>
+        <v>-0.2713489772286686</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3713265722131652</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6305214807603504</v>
+        <v>0.6355158434322374</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9914210137170187</v>
+        <v>-0.9942046665330391</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2131260099317561</v>
+        <v>-0.2114276432998727</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2730834081745717</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8547263384175416</v>
+        <v>0.8586519421060655</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9428743289683024</v>
+        <v>-0.9452377186789354</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1552335866503169</v>
+        <v>-0.1537650268101433</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1815691043400644</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9619437989031806</v>
+        <v>0.9658505143622489</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7691041919958277</v>
+        <v>-0.7719547406245032</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09319834504161414</v>
+        <v>-0.09190292730478368</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09938020942711759</v>
       </c>
       <c r="E89" t="n">
-        <v>1.205627143186468</v>
+        <v>1.209045912717933</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6120753223975072</v>
+        <v>-0.6150974391104045</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02781067098486143</v>
+        <v>0.02817899145924579</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02827982938798735</v>
       </c>
       <c r="E90" t="n">
-        <v>1.374225053326348</v>
+        <v>1.376348405120983</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5388991734482382</v>
+        <v>-0.5406542047684885</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04841615530180873</v>
+        <v>0.04916224036530526</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02877963559431584</v>
       </c>
       <c r="E91" t="n">
-        <v>1.454690484826361</v>
+        <v>1.456096083901683</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3217474954735953</v>
+        <v>-0.3249978449590812</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07764726440348381</v>
+        <v>0.0778707751187085</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06990292498200448</v>
       </c>
       <c r="E92" t="n">
-        <v>1.591598667997095</v>
+        <v>1.59194337818466</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2296658028583838</v>
+        <v>-0.2322393241217104</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09084541473559007</v>
+        <v>0.09129086214691817</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09257900669040506</v>
       </c>
       <c r="E93" t="n">
-        <v>1.602155614243658</v>
+        <v>1.601815626113458</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02468916278700171</v>
+        <v>-0.02784034906784569</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1164326695714541</v>
+        <v>0.1163681347874807</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09526669660335885</v>
       </c>
       <c r="E94" t="n">
-        <v>1.551941256235924</v>
+        <v>1.551873573413708</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1336870671791522</v>
+        <v>0.1305374549174295</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1294088832074569</v>
+        <v>0.1291066715361672</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07747212098309665</v>
       </c>
       <c r="E95" t="n">
-        <v>1.544176619910548</v>
+        <v>1.544069586610299</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1898716797139803</v>
+        <v>0.187394173617053</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1406615459056355</v>
+        <v>0.1401484156720915</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04196976639710616</v>
       </c>
       <c r="E96" t="n">
-        <v>1.510245489712669</v>
+        <v>1.50935144685177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2806595286114826</v>
+        <v>0.278259149451499</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0522189854988712</v>
+        <v>0.05235277712418175</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.002869775720086282</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352634233039467</v>
+        <v>1.351988885199734</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2978226331101453</v>
+        <v>0.2958771454762177</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03136008410339448</v>
+        <v>0.03122314443984132</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04690550662545429</v>
       </c>
       <c r="E98" t="n">
-        <v>1.288304071551908</v>
+        <v>1.287487155627953</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2505406727253939</v>
+        <v>0.2487950855198715</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02709606630379091</v>
+        <v>0.02694968252550995</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0819564779129187</v>
       </c>
       <c r="E99" t="n">
-        <v>1.183760869553359</v>
+        <v>1.182840068367398</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2253846991287664</v>
+        <v>0.2242529793805512</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05941854895970054</v>
+        <v>0.058640983513778</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1082603219030244</v>
       </c>
       <c r="E100" t="n">
-        <v>1.067362155533173</v>
+        <v>1.066095070140526</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2209160588433937</v>
+        <v>0.2192176922115103</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02344906399973722</v>
+        <v>0.02331055031706276</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1278343422098196</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9057528902918673</v>
+        <v>0.9049454184826401</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1886156124551823</v>
+        <v>0.1871297384046745</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01533791518735433</v>
+        <v>-0.01556772197906423</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1505598825495731</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7364718558533423</v>
+        <v>0.7358564143769137</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1534567473426888</v>
+        <v>0.1526980701262219</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03901588482908058</v>
+        <v>-0.03896551621719895</v>
       </c>
     </row>
   </sheetData>
